--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Rishi\Sejal\django\Event_Calendar_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EEAE1C-4C43-4A41-AF13-B8DFB9B7A264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176C40BA-0FC0-49AF-AA4B-58D1385108CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>TASK</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Whole project UI/UX working</t>
+  </si>
+  <si>
+    <t>Make models of event and user</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
@@ -505,6 +508,11 @@
         <v>16</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
